--- a/Documentos - WanoQuest/Documentação/Product Backlog - Projeto Individual.xlsx
+++ b/Documentos - WanoQuest/Documentação/Product Backlog - Projeto Individual.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/izabelle_figueiredo_sptech_school/Documents/1º Semestre/Projeto Individual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icarm\Downloads\PROJETO INDIVIDUAL\Projeto WanoQuest -- web-data-viz\Documentos - WanoQuest\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{9D897B37-A3A1-4A00-9F3F-E8C61326E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA6155BD-A8AA-4A7A-BB42-7A011F6173AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{748C5461-5AD5-481B-8A18-1E490FA75835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83B2329B-6D00-4E90-BE5F-D0DD817D3817}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{83B2329B-6D00-4E90-BE5F-D0DD817D3817}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
-  <si>
-    <t>Projeto Individual - Product Backlog</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
   <si>
     <t>Sprints</t>
   </si>
@@ -65,24 +63,12 @@
     <t>Protótipo - Tela Inicial</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>Protótipo - Tela de Login</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Protótipo - Tela de Cadastro</t>
   </si>
   <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Protótipo - Demais páginas</t>
-  </si>
-  <si>
     <t>Modelagem de Dados</t>
   </si>
   <si>
@@ -101,45 +87,12 @@
     <t>Estático - Tela de Cadastro</t>
   </si>
   <si>
-    <t>Estático - Demais páginas</t>
-  </si>
-  <si>
     <t>Botões Funcionais - Header e Footer</t>
   </si>
   <si>
     <t>Botões no cabeçalho e rodapé de todas as páginas devem redirecionar para as páginas correspondentes.</t>
   </si>
   <si>
-    <t>Botões Funcionais - Tela de Login</t>
-  </si>
-  <si>
-    <t>Botões Funcionais - Tela de Cadastro</t>
-  </si>
-  <si>
-    <t>Botões Funcionais - Demais páginas</t>
-  </si>
-  <si>
-    <t>Criação das Tabelas no Banco de Dados</t>
-  </si>
-  <si>
-    <t>Estático - Dashboard</t>
-  </si>
-  <si>
-    <t>Funcional - Dashboard</t>
-  </si>
-  <si>
-    <t>API Local</t>
-  </si>
-  <si>
-    <t>Conexão do site com o Banco de Dados</t>
-  </si>
-  <si>
-    <t>Diagrama de Solução</t>
-  </si>
-  <si>
-    <t>Diagrama de Negócio</t>
-  </si>
-  <si>
     <t>Recuperação de Senha</t>
   </si>
   <si>
@@ -147,13 +100,211 @@
   </si>
   <si>
     <t>Simular a interação do cliente com o servidor</t>
+  </si>
+  <si>
+    <t>Protótipo - Tela Perfil do Usuário</t>
+  </si>
+  <si>
+    <t>Protótipo - Tela Menu de Quizzes</t>
+  </si>
+  <si>
+    <t>Protótipo - Tela Menu de Temas</t>
+  </si>
+  <si>
+    <t>Protótipo - Tela do Fórum</t>
+  </si>
+  <si>
+    <t>Protótipo - Tela Adicionar Fórum</t>
+  </si>
+  <si>
+    <t>Estático - Tela Adicionar Fórum</t>
+  </si>
+  <si>
+    <t>Estático - Tela do Fórum</t>
+  </si>
+  <si>
+    <t>Estático - Tela Menu de Temas</t>
+  </si>
+  <si>
+    <t>Estático - Tela Menu de Quizzes</t>
+  </si>
+  <si>
+    <t>Estático - Tela Perfil do Usuário</t>
+  </si>
+  <si>
+    <t>Script do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Implementação web-data-viz: cadastro e login</t>
+  </si>
+  <si>
+    <t>Implementação web-data-viz: curtidas</t>
+  </si>
+  <si>
+    <t>Implementação web-data-viz: pontuações</t>
+  </si>
+  <si>
+    <t>Estático - Dashboard Usuários: Pontuação Global</t>
+  </si>
+  <si>
+    <t>Estático - Dashboard Tópicos: Curtidas Globais</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Projeto WanoQuest - Product Backlog</t>
+  </si>
+  <si>
+    <t>Implementação web-data-viz: Curtidas Globais</t>
+  </si>
+  <si>
+    <t>Implementação web-data-viz:  Pontuação Global</t>
+  </si>
+  <si>
+    <t>Implementação web-data-viz: Indicadores do Usuário</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Estilização das páginas</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Adicionar animações CSS e reorganização de elementos para melhorar a experiência do usuário</t>
+  </si>
+  <si>
+    <t>Sprint 1 --&gt; 19/04 - 04/05 (16 dias)</t>
+  </si>
+  <si>
+    <t>Sprint 2 --&gt; 05/05 - 20/05 (16 dias)</t>
+  </si>
+  <si>
+    <t>Sprint 3  --&gt; 21/05 - 05/06 (16 dias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanhos </t>
+  </si>
+  <si>
+    <t>PP -- 3</t>
+  </si>
+  <si>
+    <t>P -- 5</t>
+  </si>
+  <si>
+    <t>M -- 8</t>
+  </si>
+  <si>
+    <t>G -- 13</t>
+  </si>
+  <si>
+    <t>GG -- 21</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Esboço da página inicial no figma, página onde ficará todas as informações do projeto.</t>
+  </si>
+  <si>
+    <t>Esboço da página de login, onde o usuário irá informar seus dados cadastrados.</t>
+  </si>
+  <si>
+    <t>Esboço da página de cadastro, onde o usuário irá informar seus dados para posterior acesso à conta no website.</t>
+  </si>
+  <si>
+    <t>Esboço da tela responsável por receber a mensagem que o usuário deseja publicar no fórum.</t>
+  </si>
+  <si>
+    <t>Esboço da tela onde ficará todas as publicações dos usuários.</t>
+  </si>
+  <si>
+    <t>Esboço da tela de menu dos temas, onde o usuário poderá selecionar o tema que desejar.</t>
+  </si>
+  <si>
+    <t>Esboço da tela de menu dos quizzes, onde o usuário poderá acessar os quizzes dos diversos temas, sem necessariamente acessar a página do tema específico.</t>
+  </si>
+  <si>
+    <t>Esboço da tela do perfil do usuário, onde ficarão todas as informações relevantes sobre a conta do usuário, bem como indicadores e métricas referentes à atividade do usuário no website.</t>
+  </si>
+  <si>
+    <t>Criação das Tabelas no banco de dados referentes à modelagem de dados</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela inicial, utilizando HTML, CSS e JavaScript.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de login, utilizando HTML, CSS e JavaScript, sem conexão com o banco de dados.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de cadastro, utilizando HTML, CSS e JavaScript, sem conexão com o banco de dados.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de publicação no fórum, utilizando HTML, CSS e JavaScript, sem conexão com o banco de dados.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de menu do fórum, utilizando HTML, CSS e JavaScript, sem conexão com o banco de dados.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de publicação no fórum, utilizando HTML, CSS e JavaScript.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da tela de perfil do usuário, utilizando HTML, CSS e JavaScript, sem conexão com o banco de dados.</t>
+  </si>
+  <si>
+    <t>Desenvolvimento dos gráficos de todas as páginas necessárias, utilizando HTML, CSS e JavaScript.</t>
+  </si>
+  <si>
+    <t>Botões Redirecionadores Funcionais - Demais páginas</t>
+  </si>
+  <si>
+    <t>Todos os botões redirecionadores de todas as páginas devem realizar as devidas funções.</t>
+  </si>
+  <si>
+    <t>Conexão das páginas de cadastro e login com a API para que os dados sejam inseridos no banco de dados.</t>
+  </si>
+  <si>
+    <t>Conexão das páginas de fórum com a API, para que as curtidas sejam realizadas e contabilizadas no banco de dados.</t>
+  </si>
+  <si>
+    <t>Conexão das páginas de quiz com a API, para que as pontuações nos quizzes dos usuários sejam contabilizados na própria conta através do banco de dados, e contabilizados nos gráficos.</t>
+  </si>
+  <si>
+    <t>Conexão da página inicial e da página de fórum com a API, para que as curtidas nas publicações sejam contabilizadas no gráfico através dos dados inseridos no banco de dados.</t>
+  </si>
+  <si>
+    <t>Conexão da página inicial e a página do usuário ao banco de dados, para que os dados, após inseridos no banco de dados, sejam contabilizados nos gráficos.</t>
+  </si>
+  <si>
+    <t>Conexão do site com a API para que os resultados dos usuários sejam inseridos no banco de dados e exibidos na página do usuário.</t>
+  </si>
+  <si>
+    <t>Aplicar o banco de dados na Virtual Machine, para simular uma interação remota com a máquina do cliente.</t>
+  </si>
+  <si>
+    <t>Adicionar função de redefinir a senha.</t>
+  </si>
+  <si>
+    <t>Excluir Conta</t>
+  </si>
+  <si>
+    <t>Adicionar função de excluir a própria conta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +326,21 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -219,37 +389,312 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -265,6 +710,839 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1795161231"/>
+        <c:axId val="1795160751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1795161231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1795160751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1795160751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1795161231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5DA42145-C8A8-46EE-A5BF-DD905D36A573}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9637059" cy="5997388"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C7B392-8D3A-4695-CEF1-61A66AEEACB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{887699D3-6D09-44FA-8B10-C25794CBDDFD}" name="Tabela2" displayName="Tabela2" ref="A2:F34" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A2:F34" xr:uid="{887699D3-6D09-44FA-8B10-C25794CBDDFD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{52B28A59-8A85-449C-ACD4-F8554B918F9A}" name="Requisitos" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5502E341-7F4C-4404-B3E4-EAE753FA32C8}" name="Descrição" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{C071B6D2-8012-43D4-88D6-EAA7F6401F45}" name="Classificação" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F2144145-821A-435A-A72A-E2D8E15751EF}" name="Prioridade" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B520396D-E01E-4D9E-A7CB-58B5ED8F69A1}" name="Tamanho" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E253EDD9-11BD-4286-973D-F1A25E271E8C}" name="Sprint" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64DF87DE-6AC4-404D-849F-28C80BB3B4FE}" name="Tabela3" displayName="Tabela3" ref="H2:I6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="H2:I6" xr:uid="{64DF87DE-6AC4-404D-849F-28C80BB3B4FE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6A188BEA-05C5-490B-9F05-0450486B40B0}" name="Sprints" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{091259FE-B997-42C5-8D4E-BBA51DE618DE}" name="Tamanho" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,207 +1862,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7A13A0-3827-48D6-A612-D72F3E588562}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="H3" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="9">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="H4" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="H5" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>13</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="29.25">
-      <c r="A7" s="4" t="s">
+      <c r="B14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>21</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>21</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>13</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="B33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>21</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5">
+        <v>21</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="29.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -792,6 +2650,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>